--- a/biology/Botanique/Tournugeois/Tournugeois.xlsx
+++ b/biology/Botanique/Tournugeois/Tournugeois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Tournugeois (ou Pays de Tournus) est une région naturelle du département de Saône-et-Loire, située entre le Chalonnais au nord, le Haut-Mâconnais au sud et la Bresse à l'est.
-Cette micro-région du nord du Mâconnais et du Val de Saône a comme ville principale, la ville de Tournus, point de contact entre le Mâconnais et le Chalonnais, à la limite entre les parlers d'oïl et le francoprovencal[1].
+Cette micro-région du nord du Mâconnais et du Val de Saône a comme ville principale, la ville de Tournus, point de contact entre le Mâconnais et le Chalonnais, à la limite entre les parlers d'oïl et le francoprovencal.
 </t>
         </is>
       </c>
@@ -515,13 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation et description
-Le tournugeois qui correspond approximativement à l'ancienne communauté de communes du Tournugeois, présente plusieurs aspects[2] :
+          <t>Situation et description</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le tournugeois qui correspond approximativement à l'ancienne communauté de communes du Tournugeois, présente plusieurs aspects :
 à l'ouest (secteur de Brancion) : les monts du Mâconnais, dont les pentes se présentent en paliers jusqu'à la crête dont le point culminant au niveau de la Roche d'Aujoux se situe autour des 500 mètres d'altitude. la vigne est très présente dans le paysage.
-à l'est (secteur de Lacrost) : les prémices de la Bresse, avec des paysages moins ondulés et composés de vastes étendues de champs et des espaces naturels peu habités, ce qui a pu donner lieu à la création d'espaces naturels telle que  la réserve naturelle nationale de La Truchère-Ratenelle, situé en bordure de Saône.
-Géologie
-Au sud de Tournus, la petite région du Tournugeois est très vallonnée et présente des sols bruns calcaires et calciques. Issus du Jurassique moyen, ces sols sont par endroits entremêlés de rendzine. Associés à une exposition et une altitude favorables, ces terres ont été travaillées et entretenues par les viticulteurs donnant ainsi naissance aux vignobles du Mâconnais[3].
-</t>
+à l'est (secteur de Lacrost) : les prémices de la Bresse, avec des paysages moins ondulés et composés de vastes étendues de champs et des espaces naturels peu habités, ce qui a pu donner lieu à la création d'espaces naturels telle que  la réserve naturelle nationale de La Truchère-Ratenelle, situé en bordure de Saône.</t>
         </is>
       </c>
     </row>
@@ -546,14 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au XIIe siècle, les seigneuries de Brancion et d'Uxelles sont unies et composent un ensemble homogène que contrôlent les deux châteaux principaux que sont Brancion et Uxelles, complété par ceux de Boutavant et Nanton. La cité de Tournus est quant à elle liée à son abbaye et devint un centre religieux important[4].
-Au début de la Révolution, le Tournugeois, à l'instar du Mâconnais dans son ensemble, fut frappé par un vaste mouvement de révolte populaire, pendant le phénomène dit « de la Grande Peur » (fin juillet 1789), (soulèvement dit « des Brigands » ayant débuté à Igé et s'étant rapidement propagé entre Tournus, Cluny et Mâcon, donnant lieu, notamment, à l'incendie de plusieurs châteaux).
-La communauté de communes du Tournugeois (Tournus) créée le 28 décembre 2001 a fusionné avec la communauté de communes du Mâconnais - Val de Saône créée le 30 novembre 1993 (Lugny) pour former la communauté de communes Mâconnais-Tournugeois le 1er janvier 2017.
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sud de Tournus, la petite région du Tournugeois est très vallonnée et présente des sols bruns calcaires et calciques. Issus du Jurassique moyen, ces sols sont par endroits entremêlés de rendzine. Associés à une exposition et une altitude favorables, ces terres ont été travaillées et entretenues par les viticulteurs donnant ainsi naissance aux vignobles du Mâconnais.
 </t>
         </is>
       </c>
@@ -579,13 +597,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIIe siècle, les seigneuries de Brancion et d'Uxelles sont unies et composent un ensemble homogène que contrôlent les deux châteaux principaux que sont Brancion et Uxelles, complété par ceux de Boutavant et Nanton. La cité de Tournus est quant à elle liée à son abbaye et devint un centre religieux important.
+Au début de la Révolution, le Tournugeois, à l'instar du Mâconnais dans son ensemble, fut frappé par un vaste mouvement de révolte populaire, pendant le phénomène dit « de la Grande Peur » (fin juillet 1789), (soulèvement dit « des Brigands » ayant débuté à Igé et s'étant rapidement propagé entre Tournus, Cluny et Mâcon, donnant lieu, notamment, à l'incendie de plusieurs châteaux).
+La communauté de communes du Tournugeois (Tournus) créée le 28 décembre 2001 a fusionné avec la communauté de communes du Mâconnais - Val de Saône créée le 30 novembre 1993 (Lugny) pour former la communauté de communes Mâconnais-Tournugeois le 1er janvier 2017.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tournugeois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tournugeois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Lieux du Tournugeois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Monuments historiques
-Parmi les lieux les plus emblématiques du Tournugeois (limité à l'ancienne communauté de communes), classés ou inscrits au titre des monuments historiques, figurent notamment :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monuments historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Parmi les lieux les plus emblématiques du Tournugeois (limité à l'ancienne communauté de communes), classés ou inscrits au titre des monuments historiques, figurent notamment :
 l'abbaye Saint-Philibert de Tournus (abbaye romane) ;
 le calvaire de La Truchère ;
 le château de Brancion (site médiéval) ;
@@ -601,39 +659,75 @@
 l'église Saint-Pierre d'Uchizy, construite dans le dernier quart du XIe siècle ;
 l'hôtel-Dieu de Tournus (dont les locaux abritent le musée Greuze) ;
 la nécropole des Près-de-l'Eau, datant de l'âge du bronze, à Lacrost ;
-la pierre Levée du champ de la Fa, à La Chapelle-sous-Brancion.
-Autres monuments
-les cadoles :
-ces cabanes en pierres sèches qui datent de la grande période d'extension de la vigne au XVIIIe siècle sont typiques des régions viticoles dont le Tournugeois fait partie. Certaines sont encore visibles le long de la RD56 qui relie Tournus à Lugny[5].
-la Fontaine à chagrin de Lacrost[6].</t>
+la pierre Levée du champ de la Fa, à La Chapelle-sous-Brancion.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tournugeois</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tournugeois</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lieux du Tournugeois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres monuments</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>les cadoles :
+ces cabanes en pierres sèches qui datent de la grande période d'extension de la vigne au XVIIIe siècle sont typiques des régions viticoles dont le Tournugeois fait partie. Certaines sont encore visibles le long de la RD56 qui relie Tournus à Lugny.
+la Fontaine à chagrin de Lacrost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tournugeois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tournugeois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les communes du Tournugeois, avec celles du Clunisois, du Haut-Mâconnais et des environs de Saint-Gengoux-le-National, appartiennent à un territoire labellisé : le pays d'art et d'histoire « Entre Cluny et Tournus », créé en 2010 et renouvelé en 2019 par le Conseil national des villes et pays d'art et d'histoire[Note 1].
 </t>
